--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/138.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/138.xlsx
@@ -479,13 +479,13 @@
         <v>-15.52849165671438</v>
       </c>
       <c r="E2" t="n">
-        <v>-6.170024580887938</v>
+        <v>-5.852097353339326</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.693735360223</v>
+        <v>-2.591941348246964</v>
       </c>
       <c r="G2" t="n">
-        <v>-4.192875980859465</v>
+        <v>-3.410400209823461</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-15.40729644456917</v>
       </c>
       <c r="E3" t="n">
-        <v>-6.881668420436078</v>
+        <v>-6.602383903163561</v>
       </c>
       <c r="F3" t="n">
-        <v>-2.585292298907959</v>
+        <v>-2.443784884151973</v>
       </c>
       <c r="G3" t="n">
-        <v>-3.756429448843101</v>
+        <v>-2.88434795995028</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-15.21363266538785</v>
       </c>
       <c r="E4" t="n">
-        <v>-7.444177994515845</v>
+        <v>-7.141367576199733</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.906353379858264</v>
+        <v>-2.824027393226283</v>
       </c>
       <c r="G4" t="n">
-        <v>-3.633906047751345</v>
+        <v>-2.854378347856091</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-14.94217517672816</v>
       </c>
       <c r="E5" t="n">
-        <v>-8.091736732052464</v>
+        <v>-7.850469132177078</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.469970404931169</v>
+        <v>-2.304467744472365</v>
       </c>
       <c r="G5" t="n">
-        <v>-2.784988673393967</v>
+        <v>-1.898396612120143</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-14.60617815962044</v>
       </c>
       <c r="E6" t="n">
-        <v>-9.217019886582809</v>
+        <v>-9.079262340093747</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.964141441025199</v>
+        <v>-2.937173679147296</v>
       </c>
       <c r="G6" t="n">
-        <v>-2.029470886222133</v>
+        <v>-1.091290024488622</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-14.20384754216078</v>
       </c>
       <c r="E7" t="n">
-        <v>-10.21252924283776</v>
+        <v>-10.10840806359308</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.93962307158762</v>
+        <v>-2.898081180239444</v>
       </c>
       <c r="G7" t="n">
-        <v>-1.669219526226638</v>
+        <v>-0.7282665975995861</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-13.74515780742967</v>
       </c>
       <c r="E8" t="n">
-        <v>-10.78444037712261</v>
+        <v>-10.69719116057564</v>
       </c>
       <c r="F8" t="n">
-        <v>-3.045939414915553</v>
+        <v>-3.054715182241665</v>
       </c>
       <c r="G8" t="n">
-        <v>-1.109711802363157</v>
+        <v>-0.1834258943368505</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-13.21986799824625</v>
       </c>
       <c r="E9" t="n">
-        <v>-11.49111209668709</v>
+        <v>-11.42562873871164</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.895998463314138</v>
+        <v>-2.891837918470393</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.5645973147158745</v>
+        <v>0.3339337013269562</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-12.63073439284913</v>
       </c>
       <c r="E10" t="n">
-        <v>-11.8620312696662</v>
+        <v>-11.81093625890007</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.909961466926047</v>
+        <v>-2.919949707955154</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.7500324561710915</v>
+        <v>0.08227207285250926</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-11.96145428371551</v>
       </c>
       <c r="E11" t="n">
-        <v>-12.59735256947081</v>
+        <v>-12.56078279810628</v>
       </c>
       <c r="F11" t="n">
-        <v>-3.005624664290972</v>
+        <v>-3.032856432539688</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1838512379342721</v>
+        <v>0.6353311966585289</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-11.21827370008922</v>
       </c>
       <c r="E12" t="n">
-        <v>-13.48128501100903</v>
+        <v>-13.48975765990939</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.819353502661512</v>
+        <v>-2.862978110934995</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3072006117786653</v>
+        <v>1.064126432928171</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-10.39365854344571</v>
       </c>
       <c r="E13" t="n">
-        <v>-14.35776171707521</v>
+        <v>-14.34301158335773</v>
       </c>
       <c r="F13" t="n">
-        <v>-2.993055027636134</v>
+        <v>-3.081379825693819</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8680528125305473</v>
+        <v>1.541621066599154</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-9.508516966626912</v>
       </c>
       <c r="E14" t="n">
-        <v>-14.85073005747998</v>
+        <v>-14.82738993869732</v>
       </c>
       <c r="F14" t="n">
-        <v>-2.945856555342937</v>
+        <v>-3.06603812214544</v>
       </c>
       <c r="G14" t="n">
-        <v>1.557309889635084</v>
+        <v>2.29711929774352</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-8.571948675654196</v>
       </c>
       <c r="E15" t="n">
-        <v>-15.68209589718513</v>
+        <v>-15.68003273628729</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.654476635081673</v>
+        <v>-2.785565576204263</v>
       </c>
       <c r="G15" t="n">
-        <v>2.153221158629613</v>
+        <v>2.862679612108242</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-7.613246262250281</v>
       </c>
       <c r="E16" t="n">
-        <v>-15.93560557025527</v>
+        <v>-15.82819897839602</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.444547569223212</v>
+        <v>-2.585385190038431</v>
       </c>
       <c r="G16" t="n">
-        <v>2.413903004773518</v>
+        <v>3.131159424204876</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-6.65281489667086</v>
       </c>
       <c r="E17" t="n">
-        <v>-17.15123268267934</v>
+        <v>-17.07081829773232</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.188911178165963</v>
+        <v>-2.324209554200967</v>
       </c>
       <c r="G17" t="n">
-        <v>2.829972156168581</v>
+        <v>3.594544384057942</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-5.721481544853012</v>
       </c>
       <c r="E18" t="n">
-        <v>-18.13140522439278</v>
+        <v>-18.0281249543292</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.079793433903288</v>
+        <v>-2.243516495862536</v>
       </c>
       <c r="G18" t="n">
-        <v>2.933506654589239</v>
+        <v>3.664980305989586</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-4.844964722166635</v>
       </c>
       <c r="E19" t="n">
-        <v>-18.86836434149781</v>
+        <v>-18.73424421611773</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.383354405711254</v>
+        <v>-1.518608780684456</v>
       </c>
       <c r="G19" t="n">
-        <v>3.076739888769246</v>
+        <v>3.862735744749428</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-4.050802249730581</v>
       </c>
       <c r="E20" t="n">
-        <v>-19.67131038428558</v>
+        <v>-19.54932966295605</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.150632789839235</v>
+        <v>-1.27326863808893</v>
       </c>
       <c r="G20" t="n">
-        <v>2.740664667730645</v>
+        <v>3.534795831137374</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-3.363335818622474</v>
       </c>
       <c r="E21" t="n">
-        <v>-20.49135817309383</v>
+        <v>-20.43424479487453</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.5182495296175207</v>
+        <v>-0.6152229808227787</v>
       </c>
       <c r="G21" t="n">
-        <v>2.229587445890824</v>
+        <v>3.033164170564433</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-2.798823228784502</v>
       </c>
       <c r="E22" t="n">
-        <v>-21.37121318290504</v>
+        <v>-21.35159359834811</v>
       </c>
       <c r="F22" t="n">
-        <v>0.02647383748040895</v>
+        <v>-0.08110875862605448</v>
       </c>
       <c r="G22" t="n">
-        <v>1.683661383103634</v>
+        <v>2.41735464362156</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-2.36997629083609</v>
       </c>
       <c r="E23" t="n">
-        <v>-21.24066203253781</v>
+        <v>-21.10205379885391</v>
       </c>
       <c r="F23" t="n">
-        <v>0.4620256812401278</v>
+        <v>0.392636006778004</v>
       </c>
       <c r="G23" t="n">
-        <v>1.474142993821993</v>
+        <v>2.16398675175056</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-2.075594517985135</v>
       </c>
       <c r="E24" t="n">
-        <v>-21.66072061353628</v>
+        <v>-21.58645659922784</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8845483216995184</v>
+        <v>0.905033260471892</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7204732512458527</v>
+        <v>1.365142585724125</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-1.912875938274531</v>
       </c>
       <c r="E25" t="n">
-        <v>-22.15853395974616</v>
+        <v>-22.09852628946165</v>
       </c>
       <c r="F25" t="n">
-        <v>1.403237727231126</v>
+        <v>1.444760062551835</v>
       </c>
       <c r="G25" t="n">
-        <v>0.008135172722610983</v>
+        <v>0.6134626689428184</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-1.864689472062069</v>
       </c>
       <c r="E26" t="n">
-        <v>-22.43660600331568</v>
+        <v>-22.42311723336986</v>
       </c>
       <c r="F26" t="n">
-        <v>1.53229284149708</v>
+        <v>1.554870275208493</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.6277046153540126</v>
+        <v>-0.04561945777911887</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-1.915255718851313</v>
       </c>
       <c r="E27" t="n">
-        <v>-22.9930043188118</v>
+        <v>-23.01125009243913</v>
       </c>
       <c r="F27" t="n">
-        <v>1.698479962917253</v>
+        <v>1.747790486176957</v>
       </c>
       <c r="G27" t="n">
-        <v>-1.326299695574356</v>
+        <v>-0.7787993725760191</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-2.03970168270765</v>
       </c>
       <c r="E28" t="n">
-        <v>-22.81875522506809</v>
+        <v>-22.79781560865709</v>
       </c>
       <c r="F28" t="n">
-        <v>1.770074579476355</v>
+        <v>1.837479317150512</v>
       </c>
       <c r="G28" t="n">
-        <v>-1.977422519116956</v>
+        <v>-1.515562929406368</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-2.218798450003049</v>
       </c>
       <c r="E29" t="n">
-        <v>-22.77097007195086</v>
+        <v>-22.73377939671424</v>
       </c>
       <c r="F29" t="n">
-        <v>1.583632302606554</v>
+        <v>1.615449959296436</v>
       </c>
       <c r="G29" t="n">
-        <v>-2.482447150455537</v>
+        <v>-2.08487800104488</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-2.430766234851361</v>
       </c>
       <c r="E30" t="n">
-        <v>-22.50693925610312</v>
+        <v>-22.49333314999249</v>
       </c>
       <c r="F30" t="n">
-        <v>1.431261514592282</v>
+        <v>1.447708133692584</v>
       </c>
       <c r="G30" t="n">
-        <v>-3.69904717524612</v>
+        <v>-3.405144527441528</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-2.659895980101852</v>
       </c>
       <c r="E31" t="n">
-        <v>-22.49612966192037</v>
+        <v>-22.47617762489649</v>
       </c>
       <c r="F31" t="n">
-        <v>1.488203777571241</v>
+        <v>1.536722281718505</v>
       </c>
       <c r="G31" t="n">
-        <v>-3.93304971091727</v>
+        <v>-3.634566063678379</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-2.893170099827507</v>
       </c>
       <c r="E32" t="n">
-        <v>-22.31319769198101</v>
+        <v>-22.29599816582321</v>
       </c>
       <c r="F32" t="n">
-        <v>1.48418012491977</v>
+        <v>1.548451009192234</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.77984036728754</v>
+        <v>-4.56448939281367</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-3.120519932396506</v>
       </c>
       <c r="E33" t="n">
-        <v>-22.00081948722635</v>
+        <v>-21.95642730487476</v>
       </c>
       <c r="F33" t="n">
-        <v>1.115118774550094</v>
+        <v>1.126246154179193</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.96737778169553</v>
+        <v>-4.741637667629466</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-3.337875523115536</v>
       </c>
       <c r="E34" t="n">
-        <v>-21.65842278030883</v>
+        <v>-21.62444418258377</v>
       </c>
       <c r="F34" t="n">
-        <v>1.229321085954361</v>
+        <v>1.259046247705203</v>
       </c>
       <c r="G34" t="n">
-        <v>-5.064786354511944</v>
+        <v>-4.802403133978352</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-3.539912506900468</v>
       </c>
       <c r="E35" t="n">
-        <v>-21.13480525585537</v>
+        <v>-21.0993061769947</v>
       </c>
       <c r="F35" t="n">
-        <v>0.7714851488952433</v>
+        <v>0.7663614696987164</v>
       </c>
       <c r="G35" t="n">
-        <v>-5.0212595263758</v>
+        <v>-4.829072666437373</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-3.728834670648423</v>
       </c>
       <c r="E36" t="n">
-        <v>-20.70125301590422</v>
+        <v>-20.62981484756486</v>
       </c>
       <c r="F36" t="n">
-        <v>0.5390275393940382</v>
+        <v>0.5376586174713021</v>
       </c>
       <c r="G36" t="n">
-        <v>-5.34210549102396</v>
+        <v>-5.195151722618231</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-3.903744008269416</v>
       </c>
       <c r="E37" t="n">
-        <v>-20.35858252460215</v>
+        <v>-20.28748658674347</v>
       </c>
       <c r="F37" t="n">
-        <v>0.631591106405339</v>
+        <v>0.6263549800508731</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.725474610927446</v>
+        <v>-4.517110027266398</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-4.071878579568479</v>
       </c>
       <c r="E38" t="n">
-        <v>-20.0274207554648</v>
+        <v>-19.93934040775046</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09897780931675763</v>
+        <v>0.06975132626634008</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.423373098607037</v>
+        <v>-4.205680289843915</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-4.235866433025021</v>
       </c>
       <c r="E39" t="n">
-        <v>-19.69781369051113</v>
+        <v>-19.67149127753966</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.05038135046749403</v>
+        <v>-0.1292361422239652</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.536758945864529</v>
+        <v>-4.325539182193202</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-4.403512059014051</v>
       </c>
       <c r="E40" t="n">
-        <v>-18.89546410656111</v>
+        <v>-18.82244189999687</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.4958627671739172</v>
+        <v>-0.633718093800318</v>
       </c>
       <c r="G40" t="n">
-        <v>-3.940818342828798</v>
+        <v>-3.649770875034484</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-4.575321774461401</v>
       </c>
       <c r="E41" t="n">
-        <v>-18.23511572706065</v>
+        <v>-18.18014862285592</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.9103527693509665</v>
+        <v>-1.092947397816506</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.816759793580831</v>
+        <v>-3.46524997786338</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-4.754418903105829</v>
       </c>
       <c r="E42" t="n">
-        <v>-17.56220259991221</v>
+        <v>-17.4801308416373</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.203566067187324</v>
+        <v>-1.461148282977605</v>
       </c>
       <c r="G42" t="n">
-        <v>-3.119650971448029</v>
+        <v>-2.667227164990587</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-4.936729145699154</v>
       </c>
       <c r="E43" t="n">
-        <v>-17.05738819586891</v>
+        <v>-16.95738844941303</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.21057690303448</v>
+        <v>-1.464032797029084</v>
       </c>
       <c r="G43" t="n">
-        <v>-2.590543092283026</v>
+        <v>-2.141507367584356</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-5.120856403328228</v>
       </c>
       <c r="E44" t="n">
-        <v>-16.46690861350352</v>
+        <v>-16.40228572073664</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.305536083410569</v>
+        <v>-1.557090153733943</v>
       </c>
       <c r="G44" t="n">
-        <v>-2.547172712366624</v>
+        <v>-2.047433097451178</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-5.300618193852806</v>
       </c>
       <c r="E45" t="n">
-        <v>-16.36047004500391</v>
+        <v>-16.37565041132568</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.544046283413014</v>
+        <v>-1.826870441657177</v>
       </c>
       <c r="G45" t="n">
-        <v>-2.519774717884432</v>
+        <v>-2.011870461501239</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-5.473989939903699</v>
       </c>
       <c r="E46" t="n">
-        <v>-15.32031427804029</v>
+        <v>-15.29310695482591</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.646392753165012</v>
+        <v>-1.918959775002387</v>
       </c>
       <c r="G46" t="n">
-        <v>-2.031602493216107</v>
+        <v>-1.534903840571884</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-5.637628788256628</v>
       </c>
       <c r="E47" t="n">
-        <v>-14.83057757117455</v>
+        <v>-14.85478304417265</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.997164328845559</v>
+        <v>-2.285273503512856</v>
       </c>
       <c r="G47" t="n">
-        <v>-1.967145826682701</v>
+        <v>-1.442174047327108</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-5.791976048394473</v>
       </c>
       <c r="E48" t="n">
-        <v>-14.08976102765153</v>
+        <v>-14.09386779341974</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.019805319646242</v>
+        <v>-2.288011347358329</v>
       </c>
       <c r="G48" t="n">
-        <v>-1.667782158207765</v>
+        <v>-1.096413703685149</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-5.938273208980717</v>
       </c>
       <c r="E49" t="n">
-        <v>-14.07731361616837</v>
+        <v>-14.13390875965977</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.3399423782987</v>
+        <v>-2.658412285609539</v>
       </c>
       <c r="G49" t="n">
-        <v>-1.585343724417845</v>
+        <v>-1.045372471994557</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-6.079995244975914</v>
       </c>
       <c r="E50" t="n">
-        <v>-13.45441502926847</v>
+        <v>-13.49005588932828</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.68219730401708</v>
+        <v>-3.046824325158464</v>
       </c>
       <c r="G50" t="n">
-        <v>-1.552020253612953</v>
+        <v>-0.9584459299008088</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-6.222450808830881</v>
       </c>
       <c r="E51" t="n">
-        <v>-12.89701446736463</v>
+        <v>-12.88817025394238</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.598639287654637</v>
+        <v>-2.962141837216631</v>
       </c>
       <c r="G51" t="n">
-        <v>-1.578988015490856</v>
+        <v>-0.9432313405309695</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-6.368244229575147</v>
       </c>
       <c r="E52" t="n">
-        <v>-12.47329402022284</v>
+        <v>-12.47174420504603</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.765980214695402</v>
+        <v>-3.10083807302414</v>
       </c>
       <c r="G52" t="n">
-        <v>-1.522774214535068</v>
+        <v>-0.8729958678808694</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-6.522250161191721</v>
       </c>
       <c r="E53" t="n">
-        <v>-11.85342172857356</v>
+        <v>-11.85527466217612</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.949220192067374</v>
+        <v>-3.343083474272909</v>
       </c>
       <c r="G53" t="n">
-        <v>-1.801261823688277</v>
+        <v>-1.20690036987056</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-6.683230306366029</v>
       </c>
       <c r="E54" t="n">
-        <v>-11.22330207853123</v>
+        <v>-11.14353304249064</v>
       </c>
       <c r="F54" t="n">
-        <v>-3.063099829018424</v>
+        <v>-3.47181102507878</v>
       </c>
       <c r="G54" t="n">
-        <v>-1.670251106675557</v>
+        <v>-1.052412641882914</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-6.855649474034126</v>
       </c>
       <c r="E55" t="n">
-        <v>-10.51948064997015</v>
+        <v>-10.49766590132998</v>
       </c>
       <c r="F55" t="n">
-        <v>-3.238747178726078</v>
+        <v>-3.648211281843938</v>
       </c>
       <c r="G55" t="n">
-        <v>-1.532029104534137</v>
+        <v>-0.8151393606177979</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-7.036246241472734</v>
       </c>
       <c r="E56" t="n">
-        <v>-10.04461630199357</v>
+        <v>-9.976580882433582</v>
       </c>
       <c r="F56" t="n">
-        <v>-3.363431520853009</v>
+        <v>-3.757529475388156</v>
       </c>
       <c r="G56" t="n">
-        <v>-1.197376584493809</v>
+        <v>-0.4112340583076194</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-7.228931264575908</v>
       </c>
       <c r="E57" t="n">
-        <v>-9.537088499139131</v>
+        <v>-9.481784053460588</v>
       </c>
       <c r="F57" t="n">
-        <v>-3.117064686815431</v>
+        <v>-3.507231879829579</v>
       </c>
       <c r="G57" t="n">
-        <v>-1.316203896394177</v>
+        <v>-0.5727179551218202</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-7.429646143772144</v>
       </c>
       <c r="E58" t="n">
-        <v>-9.183686637764183</v>
+        <v>-9.104939404158785</v>
       </c>
       <c r="F58" t="n">
-        <v>-3.252803073468458</v>
+        <v>-3.672900766521859</v>
       </c>
       <c r="G58" t="n">
-        <v>-1.329810002504801</v>
+        <v>-0.51823486259692</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-7.641780634864666</v>
       </c>
       <c r="E59" t="n">
-        <v>-8.462690128079634</v>
+        <v>-8.384529575298265</v>
       </c>
       <c r="F59" t="n">
-        <v>-3.498544114627071</v>
+        <v>-3.891400261418021</v>
       </c>
       <c r="G59" t="n">
-        <v>-1.397380966412433</v>
+        <v>-0.5908317255637401</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-7.85938463773243</v>
       </c>
       <c r="E60" t="n">
-        <v>-8.435717477194865</v>
+        <v>-8.37807119722707</v>
       </c>
       <c r="F60" t="n">
-        <v>-3.743903813250065</v>
+        <v>-4.203978915454229</v>
       </c>
       <c r="G60" t="n">
-        <v>-1.413622247224324</v>
+        <v>-0.599514601759381</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-8.083039961469233</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.306579249812174</v>
+        <v>-8.281620869756573</v>
       </c>
       <c r="F61" t="n">
-        <v>-3.723389540436489</v>
+        <v>-4.178111180121382</v>
       </c>
       <c r="G61" t="n">
-        <v>-1.462727432195618</v>
+        <v>-0.6235538485240018</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-8.303939435240192</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.921965968598841</v>
+        <v>-7.867375317922869</v>
       </c>
       <c r="F62" t="n">
-        <v>-3.741009521184851</v>
+        <v>-4.212691125691071</v>
       </c>
       <c r="G62" t="n">
-        <v>-1.306851226257769</v>
+        <v>-0.420860512828575</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-8.519776058868187</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.746020389472307</v>
+        <v>-7.741576282230281</v>
       </c>
       <c r="F63" t="n">
-        <v>-3.849887704111047</v>
+        <v>-4.308007203568445</v>
       </c>
       <c r="G63" t="n">
-        <v>-1.488013375711302</v>
+        <v>-0.6409244899221506</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-8.719713149220194</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.406517974619999</v>
+        <v>-7.38022489568973</v>
       </c>
       <c r="F64" t="n">
-        <v>-4.217765914818929</v>
+        <v>-4.708333752852042</v>
       </c>
       <c r="G64" t="n">
-        <v>-1.344384131975075</v>
+        <v>-0.4976668107078088</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-8.899041660098497</v>
       </c>
       <c r="E65" t="n">
-        <v>-7.40765711321999</v>
+        <v>-7.407251325650035</v>
       </c>
       <c r="F65" t="n">
-        <v>-4.050395653736962</v>
+        <v>-4.539565235806138</v>
       </c>
       <c r="G65" t="n">
-        <v>-1.268809863826304</v>
+        <v>-0.3868232470211131</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-9.046271351976877</v>
       </c>
       <c r="E66" t="n">
-        <v>-7.229257252646264</v>
+        <v>-7.226074509175902</v>
       </c>
       <c r="F66" t="n">
-        <v>-4.068768541542829</v>
+        <v>-4.569803743278007</v>
       </c>
       <c r="G66" t="n">
-        <v>-1.704273705462418</v>
+        <v>-0.8701113538293895</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-9.156944185894927</v>
       </c>
       <c r="E67" t="n">
-        <v>-7.027267933939672</v>
+        <v>-6.991807967133938</v>
       </c>
       <c r="F67" t="n">
-        <v>-4.297344279591703</v>
+        <v>-4.808030380882172</v>
       </c>
       <c r="G67" t="n">
-        <v>-1.741571938850112</v>
+        <v>-0.9164982509826786</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-9.223397190758993</v>
       </c>
       <c r="E68" t="n">
-        <v>-7.13671324166243</v>
+        <v>-7.139930208180861</v>
       </c>
       <c r="F68" t="n">
-        <v>-4.37460525510956</v>
+        <v>-4.866273119687729</v>
       </c>
       <c r="G68" t="n">
-        <v>-1.760477728404472</v>
+        <v>-0.9747214337607687</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-9.246317966005613</v>
       </c>
       <c r="E69" t="n">
-        <v>-7.155790146457132</v>
+        <v>-7.188991392090352</v>
       </c>
       <c r="F69" t="n">
-        <v>-4.204194031756373</v>
+        <v>-4.666791861503865</v>
       </c>
       <c r="G69" t="n">
-        <v>-1.371464341010917</v>
+        <v>-0.5710068027184</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-9.224646331408163</v>
       </c>
       <c r="E70" t="n">
-        <v>-7.132044240104526</v>
+        <v>-7.17162563969907</v>
       </c>
       <c r="F70" t="n">
-        <v>-4.179934779682741</v>
+        <v>-4.601768070173897</v>
       </c>
       <c r="G70" t="n">
-        <v>-1.588951811485628</v>
+        <v>-0.7935983963621707</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-9.163637463851622</v>
       </c>
       <c r="E71" t="n">
-        <v>-7.266824381411638</v>
+        <v>-7.256401018771375</v>
       </c>
       <c r="F71" t="n">
-        <v>-4.411566147023438</v>
+        <v>-4.89254664259053</v>
       </c>
       <c r="G71" t="n">
-        <v>-1.356665317224765</v>
+        <v>-0.5858400495526199</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-9.064704562495663</v>
       </c>
       <c r="E72" t="n">
-        <v>-7.463484682633291</v>
+        <v>-7.490980457252821</v>
       </c>
       <c r="F72" t="n">
-        <v>-4.443100241315038</v>
+        <v>-4.924921646063241</v>
       </c>
       <c r="G72" t="n">
-        <v>-1.49795272667174</v>
+        <v>-0.7838399386558084</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-8.932557264844217</v>
       </c>
       <c r="E73" t="n">
-        <v>-7.629178014359906</v>
+        <v>-7.660203651937349</v>
       </c>
       <c r="F73" t="n">
-        <v>-4.528447634190773</v>
+        <v>-5.027893908694203</v>
       </c>
       <c r="G73" t="n">
-        <v>-1.46178874287717</v>
+        <v>-0.7291221738012963</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-8.767398276981188</v>
       </c>
       <c r="E74" t="n">
-        <v>-7.611171802069058</v>
+        <v>-7.651535442762309</v>
       </c>
       <c r="F74" t="n">
-        <v>-4.611267410516312</v>
+        <v>-5.10861141206697</v>
       </c>
       <c r="G74" t="n">
-        <v>-1.104118778507407</v>
+        <v>-0.4169688633625107</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-8.572181340537979</v>
       </c>
       <c r="E75" t="n">
-        <v>-8.181142000627737</v>
+        <v>-8.211238726900465</v>
       </c>
       <c r="F75" t="n">
-        <v>-4.861071216381331</v>
+        <v>-5.357251634297663</v>
       </c>
       <c r="G75" t="n">
-        <v>-1.083976070215717</v>
+        <v>-0.3839240659490326</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-8.347316487423161</v>
       </c>
       <c r="E76" t="n">
-        <v>-8.514997612548758</v>
+        <v>-8.590239428230579</v>
       </c>
       <c r="F76" t="n">
-        <v>-4.915960096476185</v>
+        <v>-5.409432004588246</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.922223278023836</v>
+        <v>-0.2656443228177592</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-8.0951988233278</v>
       </c>
       <c r="E77" t="n">
-        <v>-9.098534805163125</v>
+        <v>-9.175052651637211</v>
       </c>
       <c r="F77" t="n">
-        <v>-4.785692508507237</v>
+        <v>-5.236336716465122</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.6927381846977152</v>
+        <v>-0.03560188270881014</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-7.817809072911476</v>
       </c>
       <c r="E78" t="n">
-        <v>-9.936099905575526</v>
+        <v>-10.08853913968593</v>
       </c>
       <c r="F78" t="n">
-        <v>-5.256811877223762</v>
+        <v>-5.786169095738978</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.3900304355258093</v>
+        <v>0.2853565290972893</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-7.517506489185563</v>
       </c>
       <c r="E79" t="n">
-        <v>-10.83471892374196</v>
+        <v>-11.01035649543588</v>
       </c>
       <c r="F79" t="n">
-        <v>-5.408825767736748</v>
+        <v>-5.96231023514019</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.05692284165542623</v>
+        <v>0.6230597894225725</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-7.198635105616704</v>
       </c>
       <c r="E80" t="n">
-        <v>-11.57624437326069</v>
+        <v>-11.79018731375688</v>
       </c>
       <c r="F80" t="n">
-        <v>-5.484835157496676</v>
+        <v>-6.046562490477736</v>
       </c>
       <c r="G80" t="n">
-        <v>0.2427439452452586</v>
+        <v>0.9048377001972154</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-6.864386304696321</v>
       </c>
       <c r="E81" t="n">
-        <v>-12.69490781249323</v>
+        <v>-12.95850350672982</v>
       </c>
       <c r="F81" t="n">
-        <v>-5.259095043430611</v>
+        <v>-5.793175042579267</v>
       </c>
       <c r="G81" t="n">
-        <v>0.4962291732810648</v>
+        <v>1.152793461466541</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-6.521568937661518</v>
       </c>
       <c r="E82" t="n">
-        <v>-13.55341741832349</v>
+        <v>-13.82561776464585</v>
       </c>
       <c r="F82" t="n">
-        <v>-5.388150157696566</v>
+        <v>-5.908790276968072</v>
       </c>
       <c r="G82" t="n">
-        <v>0.5317233631348673</v>
+        <v>1.162674144344576</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-6.173075977016292</v>
       </c>
       <c r="E83" t="n">
-        <v>-14.43069103250898</v>
+        <v>-14.71487922366901</v>
       </c>
       <c r="F83" t="n">
-        <v>-5.718045674055385</v>
+        <v>-6.292635984103298</v>
       </c>
       <c r="G83" t="n">
-        <v>0.5941755368528389</v>
+        <v>1.19230152595808</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-5.8262296695428</v>
       </c>
       <c r="E84" t="n">
-        <v>-16.05267772869042</v>
+        <v>-16.44622811445647</v>
       </c>
       <c r="F84" t="n">
-        <v>-5.621013554767724</v>
+        <v>-6.179005686502461</v>
       </c>
       <c r="G84" t="n">
-        <v>0.5092045975058571</v>
+        <v>1.059076088834648</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-5.481413000023154</v>
       </c>
       <c r="E85" t="n">
-        <v>-17.3191505125304</v>
+        <v>-17.74138470158464</v>
       </c>
       <c r="F85" t="n">
-        <v>-5.47883634607097</v>
+        <v>-6.007357544411944</v>
       </c>
       <c r="G85" t="n">
-        <v>0.7154180181454627</v>
+        <v>1.25314032740997</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-5.144817164743468</v>
       </c>
       <c r="E86" t="n">
-        <v>-18.83521687494012</v>
+        <v>-19.32888434332686</v>
       </c>
       <c r="F86" t="n">
-        <v>-5.246760079105385</v>
+        <v>-5.734521627196888</v>
       </c>
       <c r="G86" t="n">
-        <v>0.5668264324393166</v>
+        <v>1.075723157216494</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-4.81575161454847</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.18579524391164</v>
+        <v>-20.66788065503066</v>
       </c>
       <c r="F87" t="n">
-        <v>-5.297195073944479</v>
+        <v>-5.806668701531953</v>
       </c>
       <c r="G87" t="n">
-        <v>0.3596645444675296</v>
+        <v>0.8067593334400347</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-4.501213580502907</v>
       </c>
       <c r="E88" t="n">
-        <v>-21.6730409108409</v>
+        <v>-22.15702814563115</v>
       </c>
       <c r="F88" t="n">
-        <v>-5.298578662887817</v>
+        <v>-5.789923853012769</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1121637302446982</v>
+        <v>0.3128229696756175</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-4.199672237950629</v>
       </c>
       <c r="E89" t="n">
-        <v>-23.40218485953138</v>
+        <v>-23.94295790908085</v>
       </c>
       <c r="F89" t="n">
-        <v>-5.235530030332082</v>
+        <v>-5.716446968809904</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.4484247335442414</v>
+        <v>-0.1035346331245934</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-3.917029647412323</v>
       </c>
       <c r="E90" t="n">
-        <v>-24.94053042623364</v>
+        <v>-25.45215032783569</v>
       </c>
       <c r="F90" t="n">
-        <v>-4.956988642103336</v>
+        <v>-5.440985654907315</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.7886067203510505</v>
+        <v>-0.470410597424758</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-3.651099725660177</v>
       </c>
       <c r="E91" t="n">
-        <v>-26.58963155449899</v>
+        <v>-27.14361470060285</v>
       </c>
       <c r="F91" t="n">
-        <v>-4.527122713329839</v>
+        <v>-4.925283432571392</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.9729076122131433</v>
+        <v>-0.7152569503267255</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-3.407247535073887</v>
       </c>
       <c r="E92" t="n">
-        <v>-28.34813154492186</v>
+        <v>-28.8656182547642</v>
       </c>
       <c r="F92" t="n">
-        <v>-4.118450629324419</v>
+        <v>-4.428462554755495</v>
       </c>
       <c r="G92" t="n">
-        <v>-1.410356390637225</v>
+        <v>-1.18924616607413</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-3.182881051617979</v>
       </c>
       <c r="E93" t="n">
-        <v>-30.23956363205614</v>
+        <v>-30.7547060631058</v>
       </c>
       <c r="F93" t="n">
-        <v>-3.856561198484385</v>
+        <v>-4.166064667201304</v>
       </c>
       <c r="G93" t="n">
-        <v>-2.094993356252527</v>
+        <v>-1.910042226477134</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-2.982241540975474</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.07899868665736</v>
+        <v>-32.55928249874592</v>
       </c>
       <c r="F94" t="n">
-        <v>-4.05952831856436</v>
+        <v>-4.38804513498671</v>
       </c>
       <c r="G94" t="n">
-        <v>-2.279949375034786</v>
+        <v>-2.091483049322082</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-2.80270209844762</v>
       </c>
       <c r="E95" t="n">
-        <v>-34.38048400223697</v>
+        <v>-34.89324548694244</v>
       </c>
       <c r="F95" t="n">
-        <v>-3.568192906453141</v>
+        <v>-3.813894835556819</v>
       </c>
       <c r="G95" t="n">
-        <v>-2.787310951655752</v>
+        <v>-2.622370526986642</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-2.649326110366724</v>
       </c>
       <c r="E96" t="n">
-        <v>-36.34630721785823</v>
+        <v>-36.82584056739272</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.322378530191525</v>
+        <v>-3.454103042206814</v>
       </c>
       <c r="G96" t="n">
-        <v>-3.359877212860762</v>
+        <v>-3.264629581079525</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-2.518791838783984</v>
       </c>
       <c r="E97" t="n">
-        <v>-38.31731278075843</v>
+        <v>-38.79038530771828</v>
       </c>
       <c r="F97" t="n">
-        <v>-3.301116239327311</v>
+        <v>-3.401282212016665</v>
       </c>
       <c r="G97" t="n">
-        <v>-3.954629787227832</v>
+        <v>-3.896866171095232</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-2.420258375621926</v>
       </c>
       <c r="E98" t="n">
-        <v>-40.5059133722844</v>
+        <v>-41.00417406262261</v>
       </c>
       <c r="F98" t="n">
-        <v>-3.242379710828195</v>
+        <v>-3.325351046366609</v>
       </c>
       <c r="G98" t="n">
-        <v>-4.071433050285298</v>
+        <v>-4.033010345318213</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-2.347962016791008</v>
       </c>
       <c r="E99" t="n">
-        <v>-42.39659499686462</v>
+        <v>-42.8425115351822</v>
       </c>
       <c r="F99" t="n">
-        <v>-2.873025020046505</v>
+        <v>-2.872614343469684</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.206609201148629</v>
+        <v>-4.185542470559093</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-2.321800913345285</v>
       </c>
       <c r="E100" t="n">
-        <v>-44.64905335158281</v>
+        <v>-45.10589682024794</v>
       </c>
       <c r="F100" t="n">
-        <v>-2.900946138263456</v>
+        <v>-2.870746742846523</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.809981094622071</v>
+        <v>-4.840972509151444</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-2.325594789795318</v>
       </c>
       <c r="E101" t="n">
-        <v>-46.66163502887925</v>
+        <v>-47.08415400258349</v>
       </c>
       <c r="F101" t="n">
-        <v>-2.610397349169568</v>
+        <v>-2.510896281414114</v>
       </c>
       <c r="G101" t="n">
-        <v>-5.153492495105248</v>
+        <v>-5.159691755812497</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-2.406611845397908</v>
       </c>
       <c r="E102" t="n">
-        <v>-49.35058147217217</v>
+        <v>-49.79647356545541</v>
       </c>
       <c r="F102" t="n">
-        <v>-2.302820149158214</v>
+        <v>-2.104165133134859</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.332474147496137</v>
+        <v>-5.366418522173128</v>
       </c>
     </row>
   </sheetData>
